--- a/schaken.xlsx
+++ b/schaken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelDeSmet\Dropbox\MasterInformatica\Schaken\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCD7FC-67CC-4E2A-A489-973B9435C430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9370D41-BE78-4A83-BE9F-1B55D6D00676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD0A2C39-4502-4769-AC27-39808CD06FAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="96">
   <si>
     <t>PAWN</t>
   </si>
@@ -232,6 +232,93 @@
   </si>
   <si>
     <t>King</t>
+  </si>
+  <si>
+    <t>wit:</t>
+  </si>
+  <si>
+    <t>grijs:</t>
+  </si>
+  <si>
+    <t>r=0,c=1</t>
+  </si>
+  <si>
+    <t>r=0,c=4</t>
+  </si>
+  <si>
+    <t>r=0,c=5</t>
+  </si>
+  <si>
+    <t>r=0,c=6</t>
+  </si>
+  <si>
+    <t>r=0,c=7</t>
+  </si>
+  <si>
+    <t>r=1,c=2</t>
+  </si>
+  <si>
+    <t>r=1,c=4</t>
+  </si>
+  <si>
+    <t>r=1,c=5</t>
+  </si>
+  <si>
+    <t>r=1,c=6</t>
+  </si>
+  <si>
+    <t>r=1,c=7</t>
+  </si>
+  <si>
+    <t>r=3,c=1</t>
+  </si>
+  <si>
+    <t>r=2,c=6</t>
+  </si>
+  <si>
+    <t>r=3,c=2</t>
+  </si>
+  <si>
+    <t>r=3,c=4</t>
+  </si>
+  <si>
+    <t>r=4,c=1</t>
+  </si>
+  <si>
+    <t>r=4,c=2</t>
+  </si>
+  <si>
+    <t>r=4,c=4</t>
+  </si>
+  <si>
+    <t>r=5,c=6</t>
+  </si>
+  <si>
+    <t>r=6,c=2</t>
+  </si>
+  <si>
+    <t>r=6,c=4</t>
+  </si>
+  <si>
+    <t>r=6,c=5</t>
+  </si>
+  <si>
+    <t>r=6,c=6</t>
+  </si>
+  <si>
+    <t>r=6,c=7</t>
+  </si>
+  <si>
+    <t>r=7,c=4</t>
+  </si>
+  <si>
+    <t>r=7,c=5</t>
+  </si>
+  <si>
+    <t>r=7,c=6</t>
+  </si>
+  <si>
+    <t>r=7,c=7</t>
   </si>
 </sst>
 </file>
@@ -868,7 +955,7 @@
   <dimension ref="A4:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1117,6 +1204,21 @@
       <c r="D16" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="O16" s="11" t="s">
         <v>28</v>
@@ -1136,6 +1238,18 @@
       <c r="D17" s="20" t="s">
         <v>61</v>
       </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
       <c r="L17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1163,6 +1277,18 @@
       <c r="D18" s="20" t="s">
         <v>61</v>
       </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
       <c r="O18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1181,6 +1307,18 @@
       <c r="D19" s="20" t="s">
         <v>61</v>
       </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
       <c r="L19" s="9" t="s">
         <v>30</v>
       </c>
@@ -1220,6 +1358,18 @@
       <c r="D20" s="20" t="s">
         <v>61</v>
       </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
       <c r="O20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1250,6 +1400,18 @@
       <c r="D21" s="20" t="s">
         <v>61</v>
       </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
       <c r="L21" s="9" t="s">
         <v>18</v>
       </c>
@@ -1289,6 +1451,18 @@
       <c r="D22" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
       <c r="O22" s="11" t="s">
         <v>28</v>
       </c>
@@ -1319,6 +1493,18 @@
       <c r="D23" s="20" t="s">
         <v>63</v>
       </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="s">
+        <v>95</v>
+      </c>
       <c r="L23" s="9" t="s">
         <v>31</v>
       </c>
@@ -1358,6 +1544,21 @@
       <c r="D25" s="20" t="s">
         <v>63</v>
       </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
       <c r="L25" s="9" t="s">
         <v>33</v>
       </c>
@@ -1382,6 +1583,18 @@
       <c r="D26" s="20" t="s">
         <v>63</v>
       </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
       <c r="O26" s="11" t="s">
         <v>28</v>
       </c>
@@ -1397,6 +1610,18 @@
       <c r="D27" s="20" t="s">
         <v>63</v>
       </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
       <c r="L27" s="9" t="s">
         <v>36</v>
       </c>
@@ -1438,7 +1663,18 @@
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
       <c r="O28" s="11" t="s">
         <v>28</v>
       </c>
@@ -1471,7 +1707,18 @@
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
       <c r="L29" s="9" t="s">
         <v>43</v>
       </c>
@@ -1513,7 +1760,18 @@
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
       <c r="O30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1546,7 +1804,18 @@
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s">
+        <v>91</v>
+      </c>
       <c r="L31" s="9" t="s">
         <v>49</v>
       </c>
@@ -1594,7 +1863,18 @@
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
       <c r="O32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1677,8 +1957,21 @@
         <v>65</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
       <c r="O34" s="11" t="s">
         <v>28</v>
       </c>
@@ -1716,8 +2009,18 @@
         <v>65</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="18" t="s">
@@ -1728,8 +2031,18 @@
         <v>65</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="18" t="s">
@@ -1740,8 +2053,18 @@
         <v>65</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="18" t="s">
@@ -1752,8 +2075,18 @@
         <v>65</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="21" t="s">
@@ -1763,6 +2096,18 @@
       <c r="D39" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="15" t="s">
@@ -1773,8 +2118,18 @@
         <v>60</v>
       </c>
       <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="18" t="s">
@@ -1785,8 +2140,18 @@
         <v>60</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="18" t="s">
@@ -1797,8 +2162,6 @@
         <v>60</v>
       </c>
       <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="18" t="s">
@@ -1809,8 +2172,21 @@
         <v>60</v>
       </c>
       <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="18" t="s">
@@ -1821,8 +2197,18 @@
         <v>60</v>
       </c>
       <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="21" t="s">
@@ -1832,6 +2218,18 @@
       <c r="D45" s="23" t="s">
         <v>60</v>
       </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="15" t="s">
@@ -1843,7 +2241,18 @@
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="18" t="s">
@@ -1855,7 +2264,18 @@
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="18" t="s">
@@ -1867,7 +2287,18 @@
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="18" t="s">
@@ -1879,7 +2310,18 @@
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="G49">
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="I49">
+        <v>11</v>
+      </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="18" t="s">
@@ -1891,7 +2333,18 @@
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>11</v>
+      </c>
+      <c r="J50">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="21" t="s">

--- a/schaken.xlsx
+++ b/schaken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelDeSmet\Dropbox\MasterInformatica\Schaken\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9370D41-BE78-4A83-BE9F-1B55D6D00676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CB3D7E-14D1-4847-A2DE-A585A8C5FA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD0A2C39-4502-4769-AC27-39808CD06FAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="96">
   <si>
     <t>PAWN</t>
   </si>
@@ -377,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -596,7 +602,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,6 +639,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
@@ -955,7 +964,7 @@
   <dimension ref="A4:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -998,59 +1007,29 @@
       <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="5">
@@ -1108,59 +1087,27 @@
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="M14" s="10" t="s">

--- a/schaken.xlsx
+++ b/schaken.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelDeSmet\Dropbox\MasterInformatica\Schaken\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CB3D7E-14D1-4847-A2DE-A585A8C5FA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D6161-06FE-4ACD-BF51-B8756BCF5155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD0A2C39-4502-4769-AC27-39808CD06FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="possibleMoves" sheetId="2" r:id="rId2"/>
+    <sheet name="legalMovesNotBlocked" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="162">
   <si>
     <t>PAWN</t>
   </si>
@@ -219,9 +221,6 @@
     <t>Pawn</t>
   </si>
   <si>
-    <t>takes</t>
-  </si>
-  <si>
     <t>Rook</t>
   </si>
   <si>
@@ -319,13 +318,214 @@
   </si>
   <si>
     <t>r=7,c=7</t>
+  </si>
+  <si>
+    <t>[5,0]</t>
+  </si>
+  <si>
+    <t>[6,0]</t>
+  </si>
+  <si>
+    <t>[6,1]</t>
+  </si>
+  <si>
+    <t>[6,2]</t>
+  </si>
+  <si>
+    <t>[6,3]</t>
+  </si>
+  <si>
+    <t>[6,4]</t>
+  </si>
+  <si>
+    <t>[6,5]</t>
+  </si>
+  <si>
+    <t>[6,6]</t>
+  </si>
+  <si>
+    <t>[6,7]</t>
+  </si>
+  <si>
+    <t>possibleMoves</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>[4,0]</t>
+  </si>
+  <si>
+    <t>[4,1]</t>
+  </si>
+  <si>
+    <t>[4,2]</t>
+  </si>
+  <si>
+    <t>[4,3]</t>
+  </si>
+  <si>
+    <t>[4,4]</t>
+  </si>
+  <si>
+    <t>[4,5]</t>
+  </si>
+  <si>
+    <t>[4,6]</t>
+  </si>
+  <si>
+    <t>[4,7]</t>
+  </si>
+  <si>
+    <t>[5,1]</t>
+  </si>
+  <si>
+    <t>[5,2]</t>
+  </si>
+  <si>
+    <t>[5,3]</t>
+  </si>
+  <si>
+    <t>[5,4]</t>
+  </si>
+  <si>
+    <t>[5,5]</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
+    <t>[5,7]</t>
+  </si>
+  <si>
+    <t>[1,0]</t>
+  </si>
+  <si>
+    <t>[2,0]</t>
+  </si>
+  <si>
+    <t>[3,0]</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[1,3]</t>
+  </si>
+  <si>
+    <t>[1,4]</t>
+  </si>
+  <si>
+    <t>[1,5]</t>
+  </si>
+  <si>
+    <t>[1,6]</t>
+  </si>
+  <si>
+    <t>[1,7]</t>
+  </si>
+  <si>
+    <t>[2,1]</t>
+  </si>
+  <si>
+    <t>[2,2]</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>[2,4]</t>
+  </si>
+  <si>
+    <t>[2,5]</t>
+  </si>
+  <si>
+    <t>[2,6]</t>
+  </si>
+  <si>
+    <t>[2,7]</t>
+  </si>
+  <si>
+    <t>[3,1]</t>
+  </si>
+  <si>
+    <t>[3,2]</t>
+  </si>
+  <si>
+    <t>[3,3]</t>
+  </si>
+  <si>
+    <t>[3,4]</t>
+  </si>
+  <si>
+    <t>[3,5]</t>
+  </si>
+  <si>
+    <t>[3,6]</t>
+  </si>
+  <si>
+    <t>[3,7]</t>
+  </si>
+  <si>
+    <t>[0,0]</t>
+  </si>
+  <si>
+    <t>[0,7]</t>
+  </si>
+  <si>
+    <t>[7,0]</t>
+  </si>
+  <si>
+    <t>[7,7]</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>[7,1]</t>
+  </si>
+  <si>
+    <t>[0,2]</t>
+  </si>
+  <si>
+    <t>[7,2]</t>
+  </si>
+  <si>
+    <t>[0,3]</t>
+  </si>
+  <si>
+    <t>[7,3]</t>
+  </si>
+  <si>
+    <t>[0,4]</t>
+  </si>
+  <si>
+    <t>[7,4]</t>
+  </si>
+  <si>
+    <t>[0,5]</t>
+  </si>
+  <si>
+    <t>[7,5]</t>
+  </si>
+  <si>
+    <t>[0,6]</t>
+  </si>
+  <si>
+    <t>[7,6]</t>
+  </si>
+  <si>
+    <t>legalMovesNotBlocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,8 +576,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,14 +629,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -513,86 +713,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -602,7 +722,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,16 +750,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +1083,7 @@
   <dimension ref="A4:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1007,29 +1126,59 @@
       <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="1"/>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="5">
@@ -1037,11 +1186,11 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -1051,9 +1200,9 @@
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
@@ -1063,9 +1212,9 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -1075,39 +1224,71 @@
         <v>5</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:24" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="M14" s="10" t="s">
@@ -1121,9 +1302,6 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
       <c r="L15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1144,15 +1322,8 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -1161,10 +1332,10 @@
         <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="9"/>
       <c r="O16" s="11" t="s">
@@ -1177,14 +1348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20" t="s">
-        <v>61</v>
-      </c>
+    <row r="17" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" t="s">
         <v>38</v>
       </c>
@@ -1192,10 +1356,10 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>15</v>
@@ -1216,14 +1380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20" t="s">
-        <v>61</v>
-      </c>
+    <row r="18" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +1391,7 @@
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>28</v>
@@ -1246,16 +1403,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20" t="s">
-        <v>61</v>
-      </c>
+    <row r="19" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -1297,22 +1447,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20" t="s">
-        <v>61</v>
-      </c>
+    <row r="20" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>23</v>
       </c>
       <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
         <v>84</v>
-      </c>
-      <c r="I20" t="s">
-        <v>85</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
@@ -1339,14 +1482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20" t="s">
-        <v>61</v>
-      </c>
+    <row r="21" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G21" t="s">
         <v>59</v>
       </c>
@@ -1390,25 +1526,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17" t="s">
-        <v>63</v>
-      </c>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G22" t="s">
         <v>20</v>
       </c>
       <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
         <v>87</v>
       </c>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>28</v>
@@ -1432,14 +1561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20" t="s">
-        <v>63</v>
-      </c>
+    <row r="23" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G23" t="s">
         <v>34</v>
       </c>
@@ -1447,10 +1569,10 @@
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>31</v>
@@ -1468,14 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20" t="s">
-        <v>63</v>
-      </c>
+    <row r="24" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="O24" s="11" t="s">
         <v>28</v>
       </c>
@@ -1483,28 +1598,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20" t="s">
-        <v>63</v>
-      </c>
+    <row r="25" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
         <v>68</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
       </c>
       <c r="H25" t="s">
         <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>33</v>
@@ -1522,25 +1630,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20" t="s">
-        <v>63</v>
-      </c>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G26" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
         <v>74</v>
       </c>
-      <c r="I26" t="s">
-        <v>75</v>
-      </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>28</v>
@@ -1549,14 +1650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20" t="s">
-        <v>63</v>
-      </c>
+    <row r="27" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" t="s">
         <v>54</v>
       </c>
@@ -1600,24 +1694,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="s">
-        <v>64</v>
-      </c>
+    <row r="28" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" t="s">
         <v>24</v>
       </c>
       <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
         <v>81</v>
-      </c>
-      <c r="I28" t="s">
-        <v>82</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
@@ -1644,18 +1731,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20" t="s">
-        <v>64</v>
-      </c>
+    <row r="29" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
@@ -1697,14 +1777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20" t="s">
-        <v>64</v>
-      </c>
+    <row r="30" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" t="s">
@@ -1717,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O30" s="11" t="s">
         <v>28</v>
@@ -1741,14 +1814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20" t="s">
-        <v>64</v>
-      </c>
+    <row r="31" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" t="s">
@@ -1758,10 +1824,10 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>49</v>
@@ -1800,14 +1866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20" t="s">
-        <v>64</v>
-      </c>
+    <row r="32" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" t="s">
@@ -1817,10 +1876,10 @@
         <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="11" t="s">
         <v>28</v>
@@ -1850,14 +1909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23" t="s">
-        <v>64</v>
-      </c>
+    <row r="33" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="L33" s="9" t="s">
         <v>56</v>
       </c>
@@ -1895,17 +1947,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17" t="s">
-        <v>65</v>
-      </c>
+    <row r="34" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="14"/>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1947,14 +1992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20" t="s">
-        <v>65</v>
-      </c>
+    <row r="35" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" s="14"/>
       <c r="G35">
         <v>2</v>
@@ -1969,14 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20" t="s">
-        <v>65</v>
-      </c>
+    <row r="36" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="14"/>
       <c r="G36">
         <v>2</v>
@@ -1991,14 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20" t="s">
-        <v>65</v>
-      </c>
+    <row r="37" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="14"/>
       <c r="G37">
         <v>4</v>
@@ -2013,14 +2037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20" t="s">
-        <v>65</v>
-      </c>
+    <row r="38" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="14"/>
       <c r="G38">
         <v>4</v>
@@ -2035,14 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23" t="s">
-        <v>65</v>
-      </c>
+    <row r="39" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G39">
         <v>6</v>
       </c>
@@ -2056,14 +2066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17" t="s">
-        <v>60</v>
-      </c>
+    <row r="40" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="14"/>
       <c r="G40">
         <v>6</v>
@@ -2078,14 +2081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20" t="s">
-        <v>60</v>
-      </c>
+    <row r="41" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="14"/>
       <c r="G41">
         <v>8</v>
@@ -2100,27 +2096,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20" t="s">
-        <v>60</v>
-      </c>
+    <row r="42" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20" t="s">
-        <v>60</v>
-      </c>
+    <row r="43" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="14"/>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2135,14 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20" t="s">
-        <v>60</v>
-      </c>
+    <row r="44" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="14"/>
       <c r="G44">
         <v>1</v>
@@ -2157,14 +2132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23" t="s">
-        <v>60</v>
-      </c>
+    <row r="45" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="G45">
         <v>3</v>
       </c>
@@ -2178,14 +2146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17" t="s">
-        <v>66</v>
-      </c>
+    <row r="46" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46">
@@ -2201,14 +2162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20" t="s">
-        <v>66</v>
-      </c>
+    <row r="47" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47">
@@ -2224,14 +2178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20" t="s">
-        <v>66</v>
-      </c>
+    <row r="48" spans="5:24" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48">
@@ -2248,13 +2195,6 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49">
@@ -2271,13 +2211,6 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50">
@@ -2291,15 +2224,6 @@
       </c>
       <c r="J50">
         <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2501,4 +2425,1598 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340107A9-2D8B-49EB-89B3-70EFAC9406E5}">
+  <dimension ref="A1:AD53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="3.3125" customWidth="1"/>
+    <col min="4" max="5" width="5.5234375" customWidth="1"/>
+    <col min="6" max="6" width="5.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.47265625" customWidth="1"/>
+    <col min="8" max="30" width="5.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="T46" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="V46" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W46" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="X46" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="X48" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z48" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA48" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB48" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC48" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD48" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6DA98E-CFFE-4AF0-B9A9-E998B1B9D536}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="3.3125" customWidth="1"/>
+    <col min="4" max="5" width="5.5234375" customWidth="1"/>
+    <col min="6" max="6" width="5.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.47265625" customWidth="1"/>
+    <col min="8" max="30" width="5.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/schaken.xlsx
+++ b/schaken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelDeSmet\Dropbox\MasterInformatica\Schaken\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D6161-06FE-4ACD-BF51-B8756BCF5155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D51EEC-017A-4ED9-8099-C84E4BD34D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD0A2C39-4502-4769-AC27-39808CD06FAC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="166">
   <si>
     <t>PAWN</t>
   </si>
@@ -519,6 +519,18 @@
   </si>
   <si>
     <t>legalMovesNotBlocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISHOP B </t>
+  </si>
+  <si>
+    <t>BISHOP B</t>
+  </si>
+  <si>
+    <t>PAWN W</t>
+  </si>
+  <si>
+    <t>PAWN B</t>
   </si>
 </sst>
 </file>
@@ -722,7 +734,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,6 +771,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1098,7 @@
   <dimension ref="A4:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1127,58 +1142,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:24" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="5">
@@ -1186,10 +1177,18 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="1"/>
     </row>
@@ -1200,8 +1199,12 @@
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
@@ -1210,12 +1213,20 @@
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
     </row>
@@ -1237,58 +1248,34 @@
         <v>6</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="18" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="M14" s="10" t="s">
